--- a/storage/imports/freight/if/last_rates.xlsx
+++ b/storage/imports/freight/if/last_rates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11685"/>
@@ -10,14 +10,14 @@
     <sheet name="Comparison Rates" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Comparison Rates'!$A$1:$E$236</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Comparison Rates'!$A$2:$E$239</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Suburb</t>
   </si>
@@ -730,7 +730,13 @@
     <t>Bangholme</t>
   </si>
   <si>
-    <t>15.3918.8</t>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Altona Meadows</t>
+  </si>
+  <si>
+    <t>Seddon</t>
   </si>
   <si>
     <t>rate1</t>
@@ -749,7 +755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,8 +907,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1233,7 +1252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1277,17 +1296,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,9 +1322,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1326,6 +1352,7 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text 2" xfId="44"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
@@ -1335,6 +1362,7 @@
     <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43"/>
     <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="38"/>
     <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
@@ -1655,49 +1683,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="5" width="9.73046875" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="8" max="8" width="22.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="D1" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>3067</v>
       </c>
       <c r="C2" s="2">
@@ -1709,16 +1731,13 @@
       <c r="E2" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>3042</v>
       </c>
       <c r="C3" s="2">
@@ -1730,16 +1749,13 @@
       <c r="E3" s="2">
         <v>23.7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>3206</v>
       </c>
       <c r="C4" s="2">
@@ -1751,16 +1767,13 @@
       <c r="E4" s="2">
         <v>22.3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>3078</v>
       </c>
       <c r="C5" s="2">
@@ -1772,16 +1785,13 @@
       <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>3018</v>
       </c>
       <c r="C6" s="2">
@@ -1793,74 +1803,63 @@
       <c r="E6" s="2">
         <v>29.3</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3028</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="9">
         <v>3025</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22.59</v>
+      </c>
+      <c r="E8" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="9">
         <v>3143</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>11.1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>16.59</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>20.2</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="9">
         <v>3032</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="E9" s="2">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3147</v>
       </c>
       <c r="C10" s="2">
         <v>12.7</v>
@@ -1871,12 +1870,13 @@
       <c r="E10" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
+        <v>235</v>
+      </c>
+      <c r="B11" s="9">
         <v>3147</v>
       </c>
       <c r="C11" s="2">
@@ -1888,456 +1888,425 @@
       <c r="E11" s="2">
         <v>23</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3147</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="9">
         <v>3049</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>3123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3123</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="9">
         <v>3183</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>12.7</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16" s="9">
         <v>3103</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>10.7</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>15.99</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>19.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="9">
         <v>3104</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" s="4" customFormat="1">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="9">
         <v>3175</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>18.7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>27.99</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>33.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="9">
         <v>3153</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>16.3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>24.39</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>29.3</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="9">
         <v>3153</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24.39</v>
+      </c>
+      <c r="E20" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="9">
         <v>3807</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="9">
         <v>3193</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>26.79</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>32.1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="9">
         <v>3204</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>14.7</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>21.99</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>26.5</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24" s="9">
         <v>3165</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22.59</v>
+      </c>
+      <c r="E24" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="9">
         <v>3806</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="2">
+        <v>23.19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="E25" s="2">
+        <v>41.36</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="9">
         <v>3193</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26.79</v>
+      </c>
+      <c r="E26" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="9">
         <v>3130</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>12.3</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>18.39</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>22.3</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="9">
         <v>3155</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>25.59</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>30.7</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="9">
         <v>3128</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>11.9</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>17.79</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>21.6</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="9">
         <v>3195</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>28.59</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>34.200000000000003</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="9">
         <v>3019</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>11.1</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>16.59</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>20.2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="9">
         <v>3186</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>15.1</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="2">
         <v>22.59</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>27.2</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="9">
         <v>3047</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>12.7</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>23</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B34" s="9">
         <v>3012</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>14.7</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>21.99</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>26.5</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="9">
         <v>3056</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>9.9</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>14.79</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="9">
         <v>3057</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="9">
         <v>3105</v>
-      </c>
-      <c r="C36" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D36" s="2">
-        <v>12.99</v>
-      </c>
-      <c r="E36" s="2">
-        <v>16</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3083</v>
       </c>
       <c r="C37" s="2">
         <v>8.6999999999999993</v>
@@ -2348,367 +2317,342 @@
       <c r="E37" s="2">
         <v>16</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3083</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D38" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="E38" s="2">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B39" s="9">
         <v>3121</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B40" s="9">
         <v>3125</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>11.5</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>17.190000000000001</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="2">
         <v>20.9</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1" t="s">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="9">
         <v>3151</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>13.1</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
         <v>19.59</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="2">
         <v>23.7</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B42" s="9">
         <v>3124</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B43" s="9">
         <v>3061</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>13.1</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>19.59</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <v>23.7</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B44" s="9">
         <v>3126</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="E44" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B45" s="9">
         <v>3053</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>9.1</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>13.59</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>16.7</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1" t="s">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B46" s="9">
         <v>3163</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B47" s="9">
         <v>3197</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
+      <c r="C47" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>33.39</v>
+      </c>
+      <c r="E47" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B48" s="9">
         <v>3201</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>23.5</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>35.19</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="2">
         <v>41.9</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B49" s="9">
         <v>3162</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>13.5</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D49" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="2">
         <v>24.4</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1" t="s">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B50" s="9">
         <v>3148</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>13.1</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D50" s="2">
         <v>19.59</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="2">
         <v>23.7</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B51" s="9">
         <v>3196</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>21.1</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <v>31.59</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E51" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1" t="s">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B52" s="9">
         <v>3192</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>16.7</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>24.99</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <v>30</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1" t="s">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B53" s="9">
         <v>3116</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="7">
-        <v>3000</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B55" s="9">
         <v>3168</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>15.5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D55" s="2">
         <v>23.19</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E55" s="2">
         <v>27.9</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1" t="s">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B56" s="9">
         <v>3169</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>24.39</v>
+      </c>
+      <c r="E56" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="7">
-        <v>3068</v>
-      </c>
+      <c r="B57" s="9"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="7">
-        <v>3058</v>
+        <v>46</v>
+      </c>
+      <c r="B58" s="9">
+        <v>3068</v>
       </c>
       <c r="C58" s="2">
         <v>9.9</v>
@@ -2719,2996 +2663,2876 @@
       <c r="E58" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="9">
+        <v>3058</v>
+      </c>
+      <c r="C59" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>14.79</v>
+      </c>
+      <c r="E59" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B60" s="9">
         <v>3058</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B61" s="9">
         <v>3066</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>9.9</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D61" s="2">
         <v>14.79</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E61" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B62" s="9">
         <v>3048</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>13.1</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D62" s="2">
         <v>19.59</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="2">
         <v>23.7</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B63" s="9">
         <v>3064</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>14.7</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D63" s="2">
         <v>21.99</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E63" s="2">
         <v>26.5</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B64" s="9">
         <v>3977</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B64" s="7">
-        <v>3121</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="9">
+        <v>3121</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B66" s="9">
         <v>3136</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>15.9</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D66" s="2">
         <v>23.79</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="2">
         <v>28.6</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1" t="s">
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B67" s="9">
         <v>3175</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>24.7</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D67" s="2">
         <v>36.99</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="2">
         <v>44</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1" t="s">
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B68" s="9">
         <v>3164</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>21.1</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D68" s="2">
         <v>31.59</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E68" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" s="4" customFormat="1">
-      <c r="A68" s="1" t="s">
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1">
+      <c r="A69" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B70" s="9">
         <v>3023</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>17.5</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D70" s="2">
         <v>26.19</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="2">
         <v>31.4</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1" t="s">
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B71" s="9">
         <v>3037</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B72" s="9">
         <v>3030</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D72" s="2">
         <v>25.59</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <v>30.7</v>
       </c>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B73" s="9">
         <v>3089</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1" t="s">
+      <c r="C73" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="D73" s="5">
+        <v>21.99</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B74" s="9">
         <v>3172</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B75" s="9">
         <v>3008</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>11.5</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D75" s="2">
         <v>17.190000000000001</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E75" s="2">
         <v>20.9</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1" t="s">
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B76" s="9">
         <v>3108</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>10.7</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D76" s="2">
         <v>15.99</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E76" s="2">
         <v>19.5</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1" t="s">
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B77" s="9">
         <v>3109</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
+      <c r="C77" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="D77" s="2">
+        <v>17.79</v>
+      </c>
+      <c r="E77" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B78" s="9">
         <v>3111</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B78" s="7">
-        <v>3754</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="9">
+        <v>3754</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B80" s="9">
         <v>3177</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>20.3</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>30.39</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E80" s="2">
         <v>36.299999999999997</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1" t="s">
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B81" s="9">
         <v>3002</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>107</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D81" s="2">
         <v>15.99</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E81" s="2">
         <v>19.5</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1" t="s">
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B82" s="9">
         <v>3196</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1" t="s">
+      <c r="C82" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>30.39</v>
+      </c>
+      <c r="E82" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B83" s="9">
         <v>3185</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>13.5</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D83" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E83" s="2">
         <v>24.4</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1" t="s">
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B84" s="9">
         <v>3095</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" s="7">
-        <v>3184</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="9">
+        <v>3184</v>
+      </c>
+      <c r="C85" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="D85" s="2">
+        <v>20.79</v>
+      </c>
+      <c r="E85" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B86" s="9">
         <v>3802</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B87" s="9">
         <v>3076</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>12.3</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D87" s="2">
         <v>18.39</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E87" s="2">
         <v>22.3</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1" t="s">
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B88" s="9">
         <v>3040</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>11.5</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D88" s="2">
         <v>17.190000000000001</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E88" s="2">
         <v>20.9</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1" t="s">
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B89" s="9">
         <v>3078</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D89" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="E89" s="2">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B90" s="9">
         <v>3060</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>11.1</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D90" s="2">
         <v>16.59</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E90" s="2">
         <v>20.2</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1" t="s">
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B91" s="9">
         <v>3156</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1" t="s">
+      <c r="C91" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D91" s="4">
+        <v>26.79</v>
+      </c>
+      <c r="E91" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B92" s="9">
         <v>3065</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>10.3</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1" t="s">
+      <c r="D92" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="E92" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B93" s="9">
         <v>3031</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>11.5</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D93" s="2">
         <v>17.190000000000001</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E93" s="2">
         <v>20.9</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1" t="s">
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B94" s="9">
         <v>3011</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>12.7</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D94" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E94" s="2">
         <v>23</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1" t="s">
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B95" s="9">
         <v>3012</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="7">
-        <v>3131</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="9">
+        <v>3131</v>
+      </c>
+      <c r="C96" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>19.59</v>
+      </c>
+      <c r="E96" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B97" s="9">
         <v>3805</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B98" s="9">
         <v>3199</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>25.5</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D98" s="2">
         <v>38.19</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E98" s="2">
         <v>45.4</v>
       </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1" t="s">
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B99" s="9">
         <v>3043</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="1" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B100" s="9">
         <v>3163</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>13.5</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D100" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E100" s="2">
         <v>24.4</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B101" s="9">
         <v>3146</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="1" t="s">
+      <c r="C101" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="D101" s="2">
+        <v>17.79</v>
+      </c>
+      <c r="E101" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B102" s="9">
         <v>3150</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>14.3</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D102" s="2">
         <v>21.39</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E102" s="2">
         <v>25.8</v>
       </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1" t="s">
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B103" s="9">
         <v>3046</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>12.3</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D103" s="2">
         <v>18.39</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E103" s="2">
         <v>22.3</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1" t="s">
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B104" s="9">
         <v>3088</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C104" s="2">
         <v>10.3</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D104" s="2">
         <v>15.39</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E104" s="2">
         <v>18.8</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1" t="s">
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B105" s="9">
         <v>3059</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B105" s="7">
-        <v>3803</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="9">
+        <v>3803</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B107" s="9">
         <v>3188</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C107" s="2">
         <v>14.3</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D107" s="2">
         <v>21.39</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E107" s="2">
         <v>25.8</v>
       </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1" t="s">
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B108" s="9">
         <v>3188</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B108" s="7">
-        <v>3976</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" s="7">
-        <v>3124</v>
+        <v>87</v>
+      </c>
+      <c r="B109" s="9">
+        <v>3976</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="9">
+        <v>3124</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B111" s="9">
         <v>3122</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C111" s="2">
         <v>10.7</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D111" s="2">
         <v>15.99</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E111" s="2">
         <v>19.5</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1" t="s">
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B112" s="9">
         <v>3123</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1" t="s">
+      <c r="C112" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>14.19</v>
+      </c>
+      <c r="E112" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B113" s="9">
         <v>3202</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C113" s="2">
         <v>18.7</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D113" s="2">
         <v>27.99</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E113" s="2">
         <v>33.5</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B114" s="9">
         <v>3084</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C114" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D114" s="2">
         <v>12.39</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E114" s="2">
         <v>15.3</v>
       </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1" t="s">
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B115" s="9">
         <v>3081</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B116" s="9">
         <v>3190</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C116" s="2">
         <v>16.3</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D116" s="2">
         <v>24.39</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E116" s="2">
         <v>29.3</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1" t="s">
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B117" s="9">
         <v>3029</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C117" s="2">
         <v>20.7</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D117" s="2">
         <v>30.99</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E117" s="2">
         <v>37</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1" t="s">
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B118" s="9">
         <v>3166</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C118" s="2">
         <v>14.7</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D118" s="2">
         <v>21.99</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E118" s="2">
         <v>26.5</v>
       </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="1" t="s">
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B119" s="9">
         <v>3099</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="1" t="s">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <v>21.99</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B120" s="9">
         <v>3079</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C120" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D120" s="2">
         <v>12.99</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E120" s="2">
         <v>16</v>
       </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1" t="s">
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B121" s="9">
         <v>3079</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1" t="s">
+      <c r="C121" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D121" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="E121" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B122" s="9">
         <v>3199</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B122" s="7">
-        <v>3021</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="9">
+        <v>3021</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B124" s="9">
         <v>3036</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C124" s="2">
         <v>14.7</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D124" s="2">
         <v>21.99</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E124" s="2">
         <v>26.5</v>
       </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1" t="s">
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B125" s="9">
         <v>3033</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13" s="4" customFormat="1">
-      <c r="A125" s="1" t="s">
+      <c r="C125" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="D125" s="2">
+        <v>23.79</v>
+      </c>
+      <c r="E125" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" s="3" customFormat="1">
+      <c r="A126" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B126" s="9">
         <v>3038</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C126" s="2">
         <v>16.7</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D126" s="2">
         <v>24.99</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E126" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B127" s="9">
         <v>3031</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C127" s="2">
         <v>11.9</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D127" s="2">
         <v>17.79</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E127" s="2">
         <v>21.6</v>
       </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="M126" s="4"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="1" t="s">
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B128" s="9">
         <v>3073</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="M127" s="4"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="1" t="s">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B129" s="9">
         <v>3101</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C129" s="2">
         <v>9.5</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D129" s="2">
         <v>14.19</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E129" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="1" t="s">
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B130" s="9">
         <v>3173</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C130" s="2">
         <v>18.7</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D130" s="2">
         <v>27.99</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E130" s="2">
         <v>33.5</v>
       </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="M129" s="4"/>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="1" t="s">
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B131" s="9">
         <v>3137</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C131" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D131" s="2">
         <v>25.59</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E131" s="2">
         <v>30.7</v>
       </c>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="M130" s="4"/>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="1" t="s">
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B132" s="9">
         <v>3083</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B132" s="7">
-        <v>3012</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B133" s="9">
+        <v>3012</v>
+      </c>
+      <c r="C133" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="D133" s="2">
+        <v>20.79</v>
+      </c>
+      <c r="E133" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B134" s="9">
         <v>3180</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C134" s="2">
         <v>16.7</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D134" s="2">
         <v>24.99</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E134" s="2">
         <v>30</v>
       </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="1" t="s">
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B135" s="9">
         <v>3144</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="1" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B136" s="9">
         <v>3075</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C136" s="2">
         <v>10.7</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D136" s="2">
         <v>15.99</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E136" s="2">
         <v>19.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B137" s="9">
         <v>3910</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="1" t="s">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B138" s="9">
         <v>3028</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C138" s="2">
         <v>18.3</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D138" s="2">
         <v>27.39</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E138" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="M137" s="4"/>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="1" t="s">
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B139" s="9">
         <v>3026</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="M138" s="4"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="1" t="s">
+      <c r="C139" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="D139" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="E139" s="2">
+        <v>30</v>
+      </c>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B140" s="9">
         <v>3140</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="M139" s="4"/>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="1" t="s">
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B141" s="9">
         <v>3975</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="1" t="s">
+      <c r="C141" s="4">
+        <v>28.15</v>
+      </c>
+      <c r="D141" s="4">
+        <v>42.15</v>
+      </c>
+      <c r="E141" s="4">
+        <v>50.02</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B142" s="9">
         <v>3975</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B142" s="7">
-        <v>3156</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="9">
+        <v>3156</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="6">
+        <v>29.2</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B144" s="9">
         <v>3012</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C144" s="2">
         <v>13.5</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D144" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E144" s="2">
         <v>24.4</v>
       </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="1" t="s">
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B145" s="9">
         <v>3144</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C145" s="2">
         <v>11.9</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D145" s="2">
         <v>17.79</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E145" s="2">
         <v>21.6</v>
       </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="1" t="s">
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B146" s="9">
         <v>3032</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C146" s="2">
         <v>12.7</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D146" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E146" s="2">
         <v>23</v>
       </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="1" t="s">
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B147" s="9">
         <v>3204</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="1" t="s">
+      <c r="C147" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="D147" s="2">
+        <v>21.39</v>
+      </c>
+      <c r="E147" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B148" s="9">
         <v>3000</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C148" s="2">
         <v>11.1</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D148" s="2">
         <v>16.59</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E148" s="2">
         <v>20.2</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B149" s="9">
         <v>3045</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C149" s="2">
         <v>15.5</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D149" s="2">
         <v>23.19</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E149" s="2">
         <v>27.9</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B150" s="9">
         <v>3337</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="M149" s="4"/>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B150" s="7">
-        <v>3194</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="M150" s="4"/>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B151" s="9">
+        <v>3194</v>
+      </c>
+      <c r="C151" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D151" s="2">
+        <v>26.79</v>
+      </c>
+      <c r="E151" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B152" s="9">
         <v>3754</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B152" s="7">
-        <v>3064</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B153" s="7">
-        <v>3206</v>
+        <v>206</v>
+      </c>
+      <c r="B153" s="9">
+        <v>3064</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="M153" s="4"/>
-    </row>
-    <row r="154" spans="1:13">
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154" s="9">
+        <v>3206</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B155" s="9">
         <v>3082</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C155" s="2">
         <v>11.1</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D155" s="2">
         <v>16.59</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E155" s="2">
         <v>20.2</v>
       </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="M154" s="4"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="1" t="s">
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B156" s="9">
         <v>3132</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C156" s="2">
         <v>13.5</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D156" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E156" s="2">
         <v>24.4</v>
       </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="1" t="s">
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B157" s="9">
         <v>3127</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="1" t="s">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B158" s="9">
         <v>3094</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B158" s="7">
-        <v>3765</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="M158" s="4"/>
-    </row>
-    <row r="159" spans="1:13">
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="9">
+        <v>3765</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B160" s="9">
         <v>3039</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C160" s="2">
         <v>11.5</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D160" s="2">
         <v>17.190000000000001</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E160" s="2">
         <v>20.9</v>
       </c>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="M159" s="4"/>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="1" t="s">
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B161" s="9">
         <v>3189</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C161" s="2">
         <v>50.3</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D161" s="2">
         <v>75.39</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E161" s="2">
         <v>88.8</v>
       </c>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="M160" s="4"/>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="1" t="s">
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B162" s="9">
         <v>3138</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="1" t="s">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B163" s="9">
         <v>3195</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C163" s="2">
         <v>18.7</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D163" s="2">
         <v>27.99</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E163" s="2">
         <v>33.5</v>
       </c>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="M162" s="4"/>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="1" t="s">
+      <c r="G163" s="3"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B164" s="9">
         <v>3058</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="M163" s="4"/>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B164" s="7">
-        <v>3931</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="M164" s="4"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B165" s="7">
-        <v>3149</v>
+        <v>119</v>
+      </c>
+      <c r="B165" s="9">
+        <v>3931</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="M165" s="4"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B166" s="9">
+        <v>3149</v>
+      </c>
+      <c r="C166" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="D166" s="6">
+        <v>21.39</v>
+      </c>
+      <c r="E166" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B167" s="9">
         <v>3170</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C167" s="2">
         <v>16.7</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D167" s="2">
         <v>24.99</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E167" s="2">
         <v>30</v>
       </c>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="M166" s="4"/>
-    </row>
-    <row r="167" spans="1:13">
-      <c r="A167" s="1" t="s">
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B168" s="9">
         <v>3163</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C168" s="2">
         <v>13.5</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D168" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E168" s="2">
         <v>24.4</v>
       </c>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="M167" s="4"/>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168" s="1" t="s">
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B169" s="9">
         <v>3805</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="M168" s="4"/>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169" s="1" t="s">
+      <c r="C169" s="6">
+        <v>22.7</v>
+      </c>
+      <c r="D169" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="E169" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B170" s="9">
         <v>3015</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="M169" s="4"/>
-    </row>
-    <row r="170" spans="1:13">
-      <c r="A170" s="1" t="s">
+      <c r="C170" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="D170" s="2">
+        <v>21.39</v>
+      </c>
+      <c r="E170" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B171" s="9">
         <v>3042</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="M170" s="4"/>
-    </row>
-    <row r="171" spans="1:13">
-      <c r="A171" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B171" s="7">
-        <v>3174</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="M171" s="4"/>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="9">
+        <v>3174</v>
+      </c>
+      <c r="C172" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D172" s="2">
+        <v>25.59</v>
+      </c>
+      <c r="E172" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B173" s="9">
         <v>3051</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C173" s="2">
         <v>14.3</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D173" s="2">
         <v>21.39</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E173" s="2">
         <v>25.8</v>
       </c>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="M172" s="4"/>
-    </row>
-    <row r="173" spans="1:13">
-      <c r="A173" s="1" t="s">
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B174" s="9">
         <v>3070</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C174" s="2">
         <v>9.1</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D174" s="2">
         <v>13.59</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E174" s="2">
         <v>16.7</v>
       </c>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="M173" s="4"/>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174" s="1" t="s">
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B175" s="9">
         <v>3168</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C175" s="2">
         <v>15.1</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D175" s="2">
         <v>22.59</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E175" s="2">
         <v>27.2</v>
       </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="M174" s="4"/>
-    </row>
-    <row r="175" spans="1:13">
-      <c r="A175" s="1" t="s">
+      <c r="G175" s="3"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B176" s="9">
         <v>3131</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C176" s="2">
         <v>13.1</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D176" s="2">
         <v>19.59</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E176" s="2">
         <v>23.7</v>
       </c>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="M175" s="4"/>
-    </row>
-    <row r="176" spans="1:13">
-      <c r="A176" s="1" t="s">
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B177" s="9">
         <v>3166</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C177" s="2">
         <v>14.3</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D177" s="2">
         <v>21.39</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E177" s="2">
         <v>25.8</v>
       </c>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="M176" s="4"/>
-    </row>
-    <row r="177" spans="1:13">
-      <c r="A177" s="1" t="s">
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B178" s="9">
         <v>3167</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="M177" s="4"/>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="1" t="s">
+      <c r="C178" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D178" s="2">
+        <v>23.19</v>
+      </c>
+      <c r="E178" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" s="3" customFormat="1">
+      <c r="A179" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179" s="9">
+        <v>3809</v>
+      </c>
+      <c r="C179" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="D179" s="5">
+        <v>39.39</v>
+      </c>
+      <c r="E179" s="5">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B180" s="9">
         <v>3204</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179" s="1" t="s">
+      <c r="C180" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="D180" s="2">
+        <v>21.39</v>
+      </c>
+      <c r="E180" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B181" s="9">
         <v>3810</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="M179" s="4"/>
-    </row>
-    <row r="180" spans="1:13">
-      <c r="A180" s="1" t="s">
+      <c r="C181" s="5">
+        <v>28.7</v>
+      </c>
+      <c r="D181" s="5">
+        <v>42.49</v>
+      </c>
+      <c r="E181" s="5">
+        <v>51</v>
+      </c>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B182" s="9">
         <v>3114</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B181" s="7">
-        <v>3195</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="M181" s="4"/>
-    </row>
-    <row r="182" spans="1:13">
-      <c r="A182" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B182" s="7">
-        <v>3052</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="M182" s="4"/>
-    </row>
-    <row r="183" spans="1:13">
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B183" s="7">
-        <v>3044</v>
+        <v>134</v>
+      </c>
+      <c r="B183" s="9">
+        <v>3195</v>
       </c>
       <c r="C183" s="2">
-        <v>11.1</v>
+        <v>18.3</v>
       </c>
       <c r="D183" s="2">
-        <v>16.59</v>
+        <v>27.29</v>
       </c>
       <c r="E183" s="2">
-        <v>20.2</v>
-      </c>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="M183" s="4"/>
-    </row>
-    <row r="184" spans="1:13">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B184" s="7">
-        <v>3912</v>
+        <v>135</v>
+      </c>
+      <c r="B184" s="9">
+        <v>3052</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B185" s="9">
+        <v>3044</v>
+      </c>
+      <c r="C185" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="D185" s="2">
+        <v>16.59</v>
+      </c>
+      <c r="E185" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="9">
+        <v>3912</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B187" s="9">
         <v>3090</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C187" s="2">
         <v>11.9</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D187" s="2">
         <v>17.79</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E187" s="2">
         <v>21.6</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="1" t="s">
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B188" s="9">
         <v>3030</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C188" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D188" s="2">
         <v>29.79</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E188" s="2">
         <v>35.6</v>
       </c>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
-      <c r="M186" s="4"/>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187" s="1" t="s">
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B189" s="9">
         <v>3207</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C189" s="2">
         <v>17.5</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D189" s="2">
         <v>26.19</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E189" s="2">
         <v>31.4</v>
       </c>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="M187" s="4"/>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188" s="1" t="s">
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B190" s="9">
         <v>3181</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="M188" s="4"/>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189" s="1" t="s">
+      <c r="C190" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="D190" s="2">
+        <v>17.79</v>
+      </c>
+      <c r="E190" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B191" s="9">
         <v>3072</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C191" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D191" s="2">
         <v>12.99</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E191" s="2">
         <v>16</v>
       </c>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
-      <c r="M189" s="4"/>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190" s="1" t="s">
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B192" s="9">
         <v>3095</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191" s="1" t="s">
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B193" s="9">
         <v>3073</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C193" s="2">
         <v>11.1</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D193" s="2">
         <v>16.59</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E193" s="2">
         <v>20.2</v>
       </c>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="M191" s="4"/>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192" s="1" t="s">
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B194" s="9">
         <v>3121</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C194" s="2">
         <v>10.7</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D194" s="2">
         <v>15.99</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E194" s="2">
         <v>19.5</v>
       </c>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
-      <c r="M192" s="4"/>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="1" t="s">
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B195" s="9">
         <v>3134</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C195" s="2">
         <v>14.3</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D195" s="2">
         <v>21.39</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E195" s="2">
         <v>25.8</v>
       </c>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="M193" s="4"/>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="1" t="s">
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B196" s="9">
         <v>3084</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="1" t="s">
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B197" s="9">
         <v>3178</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C197" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D197" s="2">
         <v>26.79</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E197" s="2">
         <v>32.1</v>
       </c>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
-      <c r="M195" s="4"/>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196" s="1" t="s">
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B198" s="9">
         <v>3191</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C198" s="2">
         <v>16.3</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D198" s="2">
         <v>24.39</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E198" s="2">
         <v>29.3</v>
       </c>
-      <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
-      <c r="I196" s="4"/>
-      <c r="M196" s="4"/>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="1" t="s">
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B199" s="9">
         <v>3179</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C199" s="2">
         <v>16.7</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D199" s="2">
         <v>24.99</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E199" s="2">
         <v>30</v>
       </c>
-      <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
-      <c r="M197" s="4"/>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="1" t="s">
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B200" s="9">
         <v>3198</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C200" s="2">
         <v>23.9</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D200" s="2">
         <v>35.79</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E200" s="2">
         <v>42.6</v>
       </c>
-      <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
-      <c r="I198" s="4"/>
-      <c r="M198" s="4"/>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="1" t="s">
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" s="3" customFormat="1">
+      <c r="A201" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B201" s="9">
+        <v>3011</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2">
+        <v>20.87</v>
+      </c>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B202" s="9">
         <v>3062</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C202" s="2">
         <v>13.1</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D202" s="2">
         <v>19.59</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E202" s="2">
         <v>23.7</v>
       </c>
-      <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="4"/>
-      <c r="M199" s="4"/>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="1" t="s">
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B203" s="9">
         <v>3205</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C203" s="2">
         <v>15.5</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D203" s="2">
         <v>23.19</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E203" s="2">
         <v>27.9</v>
       </c>
-      <c r="G200" s="4"/>
-      <c r="H200" s="4"/>
-      <c r="I200" s="4"/>
-      <c r="M200" s="4"/>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="1" t="s">
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B204" s="9">
         <v>3752</v>
-      </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B202" s="7">
-        <v>3141</v>
-      </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
-      <c r="I202" s="4"/>
-      <c r="M202" s="4"/>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B203" s="7">
-        <v>3006</v>
-      </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="4"/>
-      <c r="M203" s="4"/>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B204" s="7">
-        <v>3015</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="4"/>
-      <c r="M204" s="4"/>
-    </row>
-    <row r="205" spans="1:13">
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B205" s="9">
+        <v>3141</v>
+      </c>
+      <c r="C205" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D205" s="2">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="E205" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B206" s="9">
+        <v>3006</v>
+      </c>
+      <c r="C206" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D206" s="2">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="E206" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B207" s="9">
+        <v>3015</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B208" s="9">
         <v>3171</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C208" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D208" s="2">
         <v>26.79</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E208" s="2">
         <v>32.1</v>
       </c>
-      <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="4"/>
-      <c r="M205" s="4"/>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="1" t="s">
+      <c r="G208" s="3"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B209" s="9">
         <v>3021</v>
-      </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
-      <c r="M206" s="4"/>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B207" s="7">
-        <v>3182</v>
-      </c>
-      <c r="C207" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="D207" s="2">
-        <v>19.59</v>
-      </c>
-      <c r="E207" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
-      <c r="M207" s="4"/>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B208" s="7">
-        <v>3004</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
-      <c r="M208" s="4"/>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B209" s="7">
-        <v>3429</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-      <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
-      <c r="I209" s="4"/>
-      <c r="M209" s="4"/>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B210" s="7">
-        <v>3020</v>
+        <v>155</v>
+      </c>
+      <c r="B210" s="9">
+        <v>3182</v>
       </c>
       <c r="C210" s="2">
-        <v>15.1</v>
+        <v>13.1</v>
       </c>
       <c r="D210" s="2">
-        <v>22.59</v>
+        <v>19.59</v>
       </c>
       <c r="E210" s="2">
-        <v>27.2</v>
-      </c>
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-      <c r="I210" s="4"/>
-      <c r="M210" s="4"/>
-    </row>
-    <row r="211" spans="1:13">
+        <v>23.7</v>
+      </c>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B211" s="7">
-        <v>3127</v>
+        <v>156</v>
+      </c>
+      <c r="B211" s="9">
+        <v>3004</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
-      <c r="M211" s="4"/>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="G211" s="3"/>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B212" s="7">
-        <v>3037</v>
+        <v>157</v>
+      </c>
+      <c r="B212" s="9">
+        <v>3429</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="G212" s="3"/>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B213" s="7">
-        <v>3038</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:13">
+        <v>158</v>
+      </c>
+      <c r="B213" s="9">
+        <v>3020</v>
+      </c>
+      <c r="C213" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="D213" s="2">
+        <v>22.59</v>
+      </c>
+      <c r="E213" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B214" s="7">
-        <v>3106</v>
-      </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
-      <c r="I214" s="4"/>
-      <c r="M214" s="4"/>
-    </row>
-    <row r="215" spans="1:13">
+        <v>159</v>
+      </c>
+      <c r="B214" s="9">
+        <v>3127</v>
+      </c>
+      <c r="C214" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D214" s="2">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="E214" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B215" s="7">
-        <v>3107</v>
+        <v>216</v>
+      </c>
+      <c r="B215" s="9">
+        <v>3037</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="9">
+        <v>3038</v>
+      </c>
+      <c r="C216" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="D216" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="E216" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B217" s="9">
+        <v>3106</v>
+      </c>
+      <c r="C217" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="D217" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="E217" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="9">
+        <v>3107</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B219" s="9">
         <v>3074</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C219" s="2">
         <v>10.7</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D219" s="2">
         <v>15.99</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E219" s="2">
         <v>19.5</v>
       </c>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="4"/>
-      <c r="M216" s="4"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="1" t="s">
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B217" s="7">
+      <c r="B220" s="9">
         <v>3071</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C220" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D220" s="2">
         <v>12.99</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E220" s="2">
         <v>16</v>
       </c>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-      <c r="I217" s="4"/>
-      <c r="M217" s="4"/>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="1" t="s">
+      <c r="G220" s="3"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B218" s="7">
+      <c r="B221" s="9">
         <v>3142</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C221" s="2">
         <v>11.5</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D221" s="2">
         <v>17.190000000000001</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E221" s="2">
         <v>20.9</v>
       </c>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-      <c r="I218" s="4"/>
-      <c r="M218" s="4"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="1" t="s">
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B222" s="9">
         <v>3146</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-      <c r="I219" s="4"/>
-      <c r="M219" s="4"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="1" t="s">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B223" s="9">
         <v>3012</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C223" s="2">
         <v>14.3</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D223" s="2">
         <v>21.39</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E223" s="2">
         <v>25.8</v>
       </c>
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-      <c r="I220" s="4"/>
-      <c r="M220" s="4"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="1" t="s">
+      <c r="G223" s="3"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B224" s="9">
         <v>3029</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C224" s="2">
         <v>18.3</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D224" s="2">
         <v>27.39</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E224" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
-      <c r="M221" s="4"/>
-    </row>
-    <row r="222" spans="1:13">
-      <c r="A222" s="1" t="s">
+      <c r="G224" s="3"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B222" s="7">
+      <c r="B225" s="9">
         <v>3043</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C225" s="2">
         <v>13.5</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D225" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E225" s="2">
         <v>24.4</v>
       </c>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-      <c r="I222" s="4"/>
-      <c r="M222" s="4"/>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="A223" s="1" t="s">
+      <c r="G225" s="3"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B226" s="9">
         <v>3045</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-      <c r="I223" s="4"/>
-      <c r="M223" s="4"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B224" s="7">
-        <v>3158</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B225" s="7">
-        <v>3133</v>
-      </c>
-      <c r="C225" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="D225" s="2">
-        <v>20.79</v>
-      </c>
-      <c r="E225" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-      <c r="I225" s="4"/>
-      <c r="M225" s="4"/>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B226" s="7">
-        <v>3152</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-      <c r="I226" s="4"/>
-      <c r="M226" s="4"/>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="G226" s="3"/>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B227" s="9">
+        <v>3158</v>
+      </c>
+      <c r="C227" s="5">
+        <v>22</v>
+      </c>
+      <c r="D227" s="5">
+        <v>32</v>
+      </c>
+      <c r="E227" s="5">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B228" s="9">
+        <v>3133</v>
+      </c>
+      <c r="C228" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="D228" s="2">
+        <v>20.79</v>
+      </c>
+      <c r="E228" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G228" s="3"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B229" s="9">
+        <v>3152</v>
+      </c>
+      <c r="C229" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="D229" s="2">
+        <v>22.59</v>
+      </c>
+      <c r="E229" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G229" s="3"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B227" s="7">
+      <c r="B230" s="9">
         <v>3113</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-      <c r="I227" s="4"/>
-      <c r="M227" s="4"/>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B228" s="7">
-        <v>3087</v>
-      </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B229" s="7">
-        <v>3030</v>
-      </c>
-      <c r="C229" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="D229" s="2">
-        <v>33.39</v>
-      </c>
-      <c r="E229" s="2">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-      <c r="I229" s="4"/>
-      <c r="M229" s="4"/>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B230" s="7">
-        <v>3003</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-      <c r="I230" s="4"/>
-      <c r="M230" s="4"/>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="G230" s="3"/>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" s="9">
+        <v>3087</v>
+      </c>
+      <c r="C231" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D231" s="2">
+        <v>14.19</v>
+      </c>
+      <c r="E231" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B232" s="9">
+        <v>3030</v>
+      </c>
+      <c r="C232" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="D232" s="2">
+        <v>33.39</v>
+      </c>
+      <c r="E232" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B233" s="9">
+        <v>3003</v>
+      </c>
+      <c r="C233" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D233" s="2">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="E233" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B231" s="7">
+      <c r="B234" s="9">
         <v>3049</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="A232" s="1" t="s">
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B232" s="7">
+      <c r="B235" s="9">
         <v>3140</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="1" t="s">
+      <c r="C235" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="D235" s="2">
+        <v>23.79</v>
+      </c>
+      <c r="E235" s="2">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B236" s="9">
         <v>3757</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="A234" s="1" t="s">
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B237" s="9">
         <v>3016</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C237" s="2">
         <v>14.3</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D237" s="2">
         <v>21.39</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E237" s="2">
         <v>25.8</v>
       </c>
-      <c r="G234" s="4"/>
-      <c r="H234" s="4"/>
-      <c r="I234" s="4"/>
-      <c r="M234" s="4"/>
-    </row>
-    <row r="235" spans="1:13">
-      <c r="A235" s="1" t="s">
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B238" s="9">
         <v>3181</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
-      <c r="I235" s="4"/>
-      <c r="M235" s="4"/>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236" s="1" t="s">
+      <c r="C238" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="D238" s="2">
+        <v>18.39</v>
+      </c>
+      <c r="E238" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B236" s="7">
+      <c r="B239" s="9">
         <v>3013</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C239" s="2">
         <v>13.5</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D239" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E239" s="2">
         <v>24.4</v>
       </c>
-      <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
-      <c r="I236" s="4"/>
-      <c r="M236" s="4"/>
+      <c r="G239" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"-,Bold" Confidential&amp;C&amp;F]&amp;R&amp;D</oddFooter>
   </headerFooter>
